--- a/오드론/주문내역서.xlsx
+++ b/오드론/주문내역서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1111\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1111\Documents\GitHub\capstoneDesign\오드론\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>품목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,22 @@
   </si>
   <si>
     <t>2812 Arm-4 LED Strip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/droneeasy/products/3191315783?NaPm=ct%3Djmtx9b5c%7Cci%3D06946be923bfcea7173882f0eb66862116084346%7Ctr%3Dslsl%7Csn%3D448695%7Cic%3D%7Chk%3D18a074b345f1c4e3eaebd553fb8265d0ecb1ab8e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://smartstore.naver.com/maxdrone/products/3187619799?NaPm=ct%3Djmtxa8bs%7Cci%3D52a3030cea45fd21cdbf20039e25d59860ea50be%7Ctr%3Dslsl%7Csn%3D544125%7Cic%3D%7Chk%3Deab17ba4f7ab50a619e4de166c7e89b02d6102de</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,16 +110,31 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -111,25 +142,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -420,9 +611,11 @@
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="11.75" customWidth="1"/>
+    <col min="8" max="8" width="52.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -441,66 +634,104 @@
       <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="H1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="11">
         <v>7000</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="10">
         <v>3</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="11">
         <v>21000</v>
       </c>
+      <c r="H2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="14">
         <v>7000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="13">
         <v>7</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="14">
         <v>49000</v>
       </c>
+      <c r="H3" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H3" r:id="rId1"/>
+    <hyperlink ref="H2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
 </worksheet>
 </file>